--- a/excel-estudo-04/Book1.xlsx
+++ b/excel-estudo-04/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DataCamp\Excel\exerc04\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leandro\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D57E85AF-1B02-4778-AB58-6D5AA3640CA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0F52587-73BB-4CED-933F-5DD591D37C73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{47581AEF-561D-45F8-BE11-49BAE0ECAF54}"/>
   </bookViews>
@@ -34,7 +34,7 @@
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="0" hidden="1">4</definedName>
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$F$17</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$G$9</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""0,000001"""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""""</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
@@ -152,8 +152,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0_-;\-&quot;R$&quot;\ * #,##0_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -249,22 +249,18 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="3"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Calculation" xfId="3" builtinId="22"/>
@@ -605,7 +601,7 @@
   <dimension ref="C4:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,20 +625,20 @@
       </c>
     </row>
     <row r="5" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="D5" s="7">
-        <v>20</v>
-      </c>
-      <c r="E5" s="7">
-        <v>20</v>
+      <c r="D5" s="5">
+        <v>150</v>
+      </c>
+      <c r="E5" s="5">
+        <v>20.000000000000007</v>
       </c>
     </row>
     <row r="9" spans="3:10" x14ac:dyDescent="0.25">
       <c r="F9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="6">
         <f>F17</f>
-        <v>980000</v>
+        <v>1180000</v>
       </c>
     </row>
     <row r="12" spans="3:10" x14ac:dyDescent="0.25">
@@ -669,11 +665,11 @@
         <v>400</v>
       </c>
       <c r="E13" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="F13" s="3">
         <f>SUMPRODUCT($D$5:$E$5,D13:E13)</f>
-        <v>24000</v>
+        <v>80000</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>14</v>
@@ -696,7 +692,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3">
         <f t="shared" ref="F14:F17" si="0">SUMPRODUCT($D$5:$E$5,D14:E14)</f>
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>17</v>
@@ -719,7 +715,7 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>20.000000000000007</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>17</v>
@@ -744,7 +740,7 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>17</v>
@@ -758,18 +754,18 @@
       </c>
     </row>
     <row r="17" spans="3:10" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="6">
-        <v>5000</v>
-      </c>
-      <c r="E17" s="6">
-        <v>44000</v>
-      </c>
-      <c r="F17" s="6">
+      <c r="D17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>980000</v>
+        <v>1180000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>21</v>
